--- a/openwrt_harware_spec_sheet.xlsx
+++ b/openwrt_harware_spec_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dharun/Documents/GitHub/myfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C691E414-E5AD-1C43-820A-E3BAB87F3E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA3640-953F-0742-B98D-3DACF9F5EC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15740" xr2:uid="{1FD83880-87A6-3645-9E0F-17A8BDE27511}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Model</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>TP-Link Archer C2600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP-Link Archer A7 </t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4931A-7A80-7C49-B0F0-74466D2DAB99}">
-  <dimension ref="B3:O8"/>
+  <dimension ref="B3:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -711,25 +714,25 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="G8" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>18</v>
@@ -747,6 +750,47 @@
         <v>20</v>
       </c>
       <c r="O8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="5">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5">
+        <v>512</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
